--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -433,13 +433,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="106" customWidth="1"/>
+    <col min="1" max="1" width="86.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="69.5" customWidth="1"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <t>Big-Switch topology, FatTree topology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coflow Scheduling in Input-Queued Switches/ Optimal Delay Scaling and Algorithms</t>
+  </si>
+  <si>
+    <t>INFOCOM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -539,6 +546,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,20 @@
   </si>
   <si>
     <t>INFOCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OMCO: Online Multiple Coflow Scheduling in Optical Circuit Switch</t>
+  </si>
+  <si>
+    <t>ICC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Swallow: Joint Online Scheduling and Coflow Compression in Datacenter Networks </t>
+  </si>
+  <si>
+    <t>IPDPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -557,6 +571,28 @@
         <v>23</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Documents/GitHub/papers-reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zifan\Desktop\papers-reading-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,43 +111,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coflow Scheduling in Input-Queued Switches/ Optimal Delay Scaling and Algorithms</t>
+    <t>Coflow Scheduling in Input-Queued Switches Optimal Delay Scaling and Algorithms</t>
   </si>
   <si>
     <t>INFOCOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OMCO: Online Multiple Coflow Scheduling in Optical Circuit Switch</t>
+  </si>
+  <si>
+    <t>Multi-Attributes-Based Coflow Scheduling Without Prior Knowledge</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>Multi-hop Coflow Routing and Scheduling in Data Centers</t>
   </si>
   <si>
     <t>ICC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Swallow: Joint Online Scheduling and Coflow Compression in Datacenter Networks </t>
-  </si>
-  <si>
-    <t>IPDPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWQoS</t>
+  </si>
+  <si>
+    <t>Skipping congestion-links for coflow scheduling</t>
+  </si>
+  <si>
+    <t>Datacenter; Scheduling; Coflow Scheduling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,6 +190,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="86.5" customWidth="1"/>
+    <col min="1" max="1" width="72.69921875" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" customWidth="1"/>
     <col min="4" max="4" width="69.5" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -501,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -515,7 +524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -532,7 +541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -543,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -560,7 +569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -571,7 +580,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -582,7 +591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -591,10 +600,25 @@
       </c>
       <c r="C9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zifan\Desktop\papers-reading-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers-reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,96 @@
   </si>
   <si>
     <t>Datacenter; Scheduling; Coflow Scheduling</t>
+  </si>
+  <si>
+    <t>Swallow_ Joint Online Scheduling and Coflow Compression in Datacenter Networks</t>
+  </si>
+  <si>
+    <t>IPDPS</t>
+  </si>
+  <si>
+    <t>Big Data; Coflow Scheduling; Traffic Compression; Datacenter Networks</t>
+  </si>
+  <si>
+    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
+  </si>
+  <si>
+    <t>TPDS</t>
+  </si>
+  <si>
+    <t>Coflow, datacenter networks, decentralized, scheduling</t>
+  </si>
+  <si>
+    <t>Coflex Navigating the fairness-efficiency tradeoff for coflow scheduling</t>
+  </si>
+  <si>
+    <t>Coflow a networking abstraction for cluster applications</t>
+  </si>
+  <si>
+    <t>Efficient Coflow Scheduling with Varys</t>
+  </si>
+  <si>
+    <t>SIGCOMM</t>
+  </si>
+  <si>
+    <t>data-intensive applications; datacenter networks</t>
+  </si>
+  <si>
+    <t>Coflow; data-intensive applications; datacenter networks</t>
+  </si>
+  <si>
+    <t>Efficient Coflow Scheduling Without Prior Knowledge</t>
+  </si>
+  <si>
+    <t>Fair Coflow Scheduling without Prior Knowledge</t>
+  </si>
+  <si>
+    <t>ICDCS</t>
+  </si>
+  <si>
+    <t>fair scheduling</t>
+  </si>
+  <si>
+    <t>HotNets</t>
+  </si>
+  <si>
+    <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
+  </si>
+  <si>
+    <t>NSDI</t>
+  </si>
+  <si>
+    <t>DRF</t>
+  </si>
+  <si>
+    <t>Optimizing coflow completion times with utility max-min fairness</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Scheduling Coflows in Datacenter Networks Improved Bound for Total Weighted Completion Time</t>
+  </si>
+  <si>
+    <t>SIGMETRICS</t>
+  </si>
+  <si>
+    <t>2-page poster</t>
+  </si>
+  <si>
+    <t>Scheduling Coflows of Multi-stage Jobs to Minimize the Total Weighted Job Completion Time</t>
+  </si>
+  <si>
+    <t>Luping Wang, Wei Wang, Bo Li</t>
+  </si>
+  <si>
+    <t>Utopia- Near-optimal Coflow Scheduling with Isolation Guarantee</t>
+  </si>
+  <si>
+    <t>Managing Data Transfers in Computer Clusters with Orchestra</t>
+  </si>
+  <si>
+    <t>M. Chowdhury</t>
   </si>
 </sst>
 </file>
@@ -461,22 +551,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="72.69921875" customWidth="1"/>
+    <col min="1" max="1" width="80.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="69.5" customWidth="1"/>
-    <col min="5" max="5" width="47" customWidth="1"/>
+    <col min="3" max="4" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="69.5" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,61 +577,58 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -552,71 +639,250 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>2016</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>2017</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B8">
+      <c r="B17">
         <v>2018</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="B18">
         <v>2018</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>2017</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F22">
+    <sortCondition ref="B2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers-reading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Documents/GitHub/papers-reading/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Transactions on Networking </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Inter-datacenter WAN, deadline, scheduling,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,155 +94,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ICNP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decentralized, inter-coflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFOCOM</t>
+  </si>
+  <si>
+    <t>Multi-Attributes-Based Coflow Scheduling Without Prior Knowledge</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>Multi-hop Coflow Routing and Scheduling in Data Centers</t>
+  </si>
+  <si>
+    <t>ICC</t>
+  </si>
+  <si>
+    <t>IWQoS</t>
+  </si>
+  <si>
+    <t>Skipping congestion-links for coflow scheduling</t>
+  </si>
+  <si>
+    <t>Datacenter; Scheduling; Coflow Scheduling</t>
+  </si>
+  <si>
+    <t>Swallow_ Joint Online Scheduling and Coflow Compression in Datacenter Networks</t>
+  </si>
+  <si>
+    <t>IPDPS</t>
+  </si>
+  <si>
+    <t>Big Data; Coflow Scheduling; Traffic Compression; Datacenter Networks</t>
+  </si>
+  <si>
+    <t>TPDS</t>
+  </si>
+  <si>
+    <t>Coflow, datacenter networks, decentralized, scheduling</t>
+  </si>
+  <si>
+    <t>SIGCOMM</t>
+  </si>
+  <si>
+    <t>data-intensive applications; datacenter networks</t>
+  </si>
+  <si>
+    <t>Coflow; data-intensive applications; datacenter networks</t>
+  </si>
+  <si>
+    <t>ICDCS</t>
+  </si>
+  <si>
+    <t>fair scheduling</t>
+  </si>
+  <si>
+    <t>HotNets</t>
+  </si>
+  <si>
+    <t>NSDI</t>
+  </si>
+  <si>
+    <t>DRF</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>SIGMETRICS</t>
+  </si>
+  <si>
+    <t>2-page poster</t>
+  </si>
+  <si>
+    <t>Luping Wang, Wei Wang, Bo Li</t>
+  </si>
+  <si>
+    <t>INFOCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziyang Li;Yiming Zhang;Dongsheng Li;Kai Chen;Yuxing Peng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny coflow, FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INFOCOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobiHoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGCOMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Managing Data Transfers in Computer Clusters with Orchestra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. Chowdhury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFO </t>
+  </si>
+  <si>
+    <t>Coflow a networking abstraction for cluster applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient Coflow Scheduling with Varys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEBF, MADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient Coflow Scheduling Without Prior Knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Information-agnostic</t>
+  </si>
+  <si>
+    <t>Big-Switch topology, FatTree topology, Information-agnostic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Stream: Decentralized Opportunistic Inter-Coflow Scheduling for Datacenter Networks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ICNP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decentralized, inter-coflow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big-Switch topology, FatTree topology</t>
+    <t>CODA: Toward Automatically Identifying and Scheduling Coflows in the Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hengky Susanto, Hao Jin, and Kai Chen</t>
+  </si>
+  <si>
+    <t>Hong Zhang, Li Chen, Bairen Yi, Kai Chen, Mosharaf Chowdhury, Yanhui Geng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapier: Integrating routing and scheduling for coflow-aware data center networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient online coflow routing and scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yupeng Li, Shaofeng H.-C. Jiang, Haisheng Tan, Chenzi Zhang, Guihai Chen, Jipeng Zhou, Francis C. M. Lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTAS: Decentralized flow monitoring and scheduling for tiny tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimizing coflow completion times with utility max-min fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Asymptotically Optimal Approximation Algorithms for Coflow Scheduling </t>
+  </si>
+  <si>
+    <t>Coflex Navigating the fairness-efficiency tradeoff for coflow scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utopia- Near-optimal Coflow Scheduling with Isolation Guarantee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling Coflows of Multi-stage Jobs to Minimize the Total Weighted Job Completion Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling Coflows in Datacenter Networks Improved Bound for Total Weighted Completion Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Coflow Scheduling in Input-Queued Switches Optimal Delay Scaling and Algorithms</t>
-  </si>
-  <si>
-    <t>INFOCOM</t>
-  </si>
-  <si>
-    <t>Multi-Attributes-Based Coflow Scheduling Without Prior Knowledge</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>Multi-hop Coflow Routing and Scheduling in Data Centers</t>
-  </si>
-  <si>
-    <t>ICC</t>
-  </si>
-  <si>
-    <t>IWQoS</t>
-  </si>
-  <si>
-    <t>Skipping congestion-links for coflow scheduling</t>
-  </si>
-  <si>
-    <t>Datacenter; Scheduling; Coflow Scheduling</t>
-  </si>
-  <si>
-    <t>Swallow_ Joint Online Scheduling and Coflow Compression in Datacenter Networks</t>
-  </si>
-  <si>
-    <t>IPDPS</t>
-  </si>
-  <si>
-    <t>Big Data; Coflow Scheduling; Traffic Compression; Datacenter Networks</t>
-  </si>
-  <si>
-    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
-  </si>
-  <si>
-    <t>TPDS</t>
-  </si>
-  <si>
-    <t>Coflow, datacenter networks, decentralized, scheduling</t>
-  </si>
-  <si>
-    <t>Coflex Navigating the fairness-efficiency tradeoff for coflow scheduling</t>
-  </si>
-  <si>
-    <t>Coflow a networking abstraction for cluster applications</t>
-  </si>
-  <si>
-    <t>Efficient Coflow Scheduling with Varys</t>
-  </si>
-  <si>
-    <t>SIGCOMM</t>
-  </si>
-  <si>
-    <t>data-intensive applications; datacenter networks</t>
-  </si>
-  <si>
-    <t>Coflow; data-intensive applications; datacenter networks</t>
-  </si>
-  <si>
-    <t>Efficient Coflow Scheduling Without Prior Knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fair Coflow Scheduling without Prior Knowledge</t>
-  </si>
-  <si>
-    <t>ICDCS</t>
-  </si>
-  <si>
-    <t>fair scheduling</t>
-  </si>
-  <si>
-    <t>HotNets</t>
-  </si>
-  <si>
-    <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
-  </si>
-  <si>
-    <t>NSDI</t>
-  </si>
-  <si>
-    <t>DRF</t>
-  </si>
-  <si>
-    <t>Optimizing coflow completion times with utility max-min fairness</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Scheduling Coflows in Datacenter Networks Improved Bound for Total Weighted Completion Time</t>
-  </si>
-  <si>
-    <t>SIGMETRICS</t>
-  </si>
-  <si>
-    <t>2-page poster</t>
-  </si>
-  <si>
-    <t>Scheduling Coflows of Multi-stage Jobs to Minimize the Total Weighted Job Completion Time</t>
-  </si>
-  <si>
-    <t>Luping Wang, Wei Wang, Bo Li</t>
-  </si>
-  <si>
-    <t>Utopia- Near-optimal Coflow Scheduling with Isolation Guarantee</t>
-  </si>
-  <si>
-    <t>Managing Data Transfers in Computer Clusters with Orchestra</t>
-  </si>
-  <si>
-    <t>M. Chowdhury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,14 +369,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -551,22 +663,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="80.19921875" customWidth="1"/>
+    <col min="1" max="1" width="83.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="4" width="25.8984375" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" customWidth="1"/>
     <col min="5" max="5" width="69.5" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -586,301 +699,386 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3">
         <v>2012</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2014</v>
-      </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2014</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2015</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>2016</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>34</v>
       </c>
       <c r="B9">
         <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>2016</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>2016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
         <v>2017</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>2017</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
         <v>2017</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20">
         <v>2017</v>
       </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
         <v>2017</v>
       </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>2018</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>2018</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>2018</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>2018</v>
-      </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2018</v>
       </c>
       <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23">
-        <v>2011</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F22">
+  <sortState ref="A2:F27">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -666,12 +666,12 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="83.5" customWidth="1"/>
+    <col min="1" max="1" width="90.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="55.83203125" customWidth="1"/>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Documents/GitHub/papers-reading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers-reading\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="24" yWindow="480" windowWidth="28800" windowHeight="15936" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>paper name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,92 +243,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CODA: Toward Automatically Identifying and Scheduling Coflows in the Dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hengky Susanto, Hao Jin, and Kai Chen</t>
+  </si>
+  <si>
+    <t>Hong Zhang, Li Chen, Bairen Yi, Kai Chen, Mosharaf Chowdhury, Yanhui Geng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapier: Integrating routing and scheduling for coflow-aware data center networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient online coflow routing and scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yupeng Li, Shaofeng H.-C. Jiang, Haisheng Tan, Chenzi Zhang, Guihai Chen, Jipeng Zhou, Francis C. M. Lau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimizing coflow completion times with utility max-min fairness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Asymptotically Optimal Approximation Algorithms for Coflow Scheduling </t>
+  </si>
+  <si>
+    <t>Coflex Navigating the fairness-efficiency tradeoff for coflow scheduling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utopia- Near-optimal Coflow Scheduling with Isolation Guarantee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling Coflows of Multi-stage Jobs to Minimize the Total Weighted Job Completion Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheduling Coflows in Datacenter Networks Improved Bound for Total Weighted Completion Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coflow Scheduling in Input-Queued Switches Optimal Delay Scaling and Algorithms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fair Coflow Scheduling without Prior Knowledge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
+  </si>
+  <si>
     <t>Stream: Decentralized Opportunistic Inter-Coflow Scheduling for Datacenter Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODA: Toward Automatically Identifying and Scheduling Coflows in the Dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hengky Susanto, Hao Jin, and Kai Chen</t>
-  </si>
-  <si>
-    <t>Hong Zhang, Li Chen, Bairen Yi, Kai Chen, Mosharaf Chowdhury, Yanhui Geng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rapier: Integrating routing and scheduling for coflow-aware data center networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Efficient online coflow routing and scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yupeng Li, Shaofeng H.-C. Jiang, Haisheng Tan, Chenzi Zhang, Guihai Chen, Jipeng Zhou, Francis C. M. Lau</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shouxi Luo, Hongfang Yu, Yangming Zhao, ShengWang, Shui Yu, and Lemin Li</t>
   </si>
   <si>
     <t>OPTAS: Decentralized flow monitoring and scheduling for tiny tasks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimizing coflow completion times with utility max-min fairness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Asymptotically Optimal Approximation Algorithms for Coflow Scheduling </t>
-  </si>
-  <si>
-    <t>Coflex Navigating the fairness-efficiency tradeoff for coflow scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utopia- Near-optimal Coflow Scheduling with Isolation Guarantee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduling Coflows of Multi-stage Jobs to Minimize the Total Weighted Job Completion Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scheduling Coflows in Datacenter Networks Improved Bound for Total Weighted Completion Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coflow Scheduling in Input-Queued Switches Optimal Delay Scaling and Algorithms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fair Coflow Scheduling without Prior Knowledge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,7 +337,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,7 +346,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -666,20 +666,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="83.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="4" max="4" width="55.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="55.796875" customWidth="1"/>
     <col min="5" max="5" width="69.5" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -716,7 +716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -730,7 +730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -747,7 +747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -767,7 +767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -778,7 +778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -795,9 +795,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -809,7 +809,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -826,9 +826,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -837,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -846,9 +846,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>2016</v>
@@ -856,13 +856,16 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -874,9 +877,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -885,9 +888,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>2016</v>
@@ -902,9 +905,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -913,12 +916,12 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -927,15 +930,15 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -944,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -958,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -972,9 +975,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -983,9 +986,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -997,7 +1000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1033,9 +1036,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -1047,9 +1050,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>2018</v>
@@ -1058,9 +1061,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -1072,9 +1075,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/conclusion.xlsx
+++ b/conclusion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\papers-reading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/white/Documents/GitHub/papers-reading/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="480" windowWidth="28800" windowHeight="15936" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Stream: Decentralized Opportunistic Inter-Coflow Scheduling for Datacenter Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CODA: Toward Automatically Identifying and Scheduling Coflows in the Dark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +270,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPTAS: Decentralized flow monitoring and scheduling for tiny tasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HUG Multi-Resource Fairness for Correlated and Elastic Demands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,34 +313,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Towards Practical and Near-Optimal Coflow Scheduling for Data Center Networks</t>
-  </si>
-  <si>
-    <t>Stream: Decentralized Opportunistic Inter-Coflow Scheduling for Datacenter Networks</t>
-  </si>
-  <si>
-    <t>Shouxi Luo, Hongfang Yu, Yangming Zhao, ShengWang, Shui Yu, and Lemin Li</t>
-  </si>
-  <si>
-    <t>OPTAS: Decentralized flow monitoring and scheduling for tiny tasks</t>
+    <t>Yosemite: Efficient scheduling of weighted coflows in data centers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -337,7 +340,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -346,7 +349,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -663,23 +666,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="83.5" customWidth="1"/>
+    <col min="1" max="1" width="90.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="25.796875" customWidth="1"/>
-    <col min="4" max="4" width="55.796875" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" customWidth="1"/>
     <col min="5" max="5" width="69.5" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -716,7 +719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -730,7 +733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -747,7 +750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -767,7 +770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -778,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -795,9 +798,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>2015</v>
@@ -809,7 +812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -826,9 +829,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -837,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -846,9 +849,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>2016</v>
@@ -856,16 +859,13 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12">
         <v>2016</v>
@@ -877,9 +877,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>2016</v>
@@ -888,9 +888,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>2016</v>
@@ -905,9 +905,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>2016</v>
@@ -916,12 +916,12 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -930,15 +930,15 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>2017</v>
@@ -947,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -961,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -975,9 +975,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>2017</v>
@@ -986,9 +986,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -1000,7 +1000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1036,9 +1036,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -1050,9 +1050,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>2018</v>
@@ -1061,9 +1061,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>2018</v>
@@ -1075,9 +1075,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
